--- a/GroceryApplication/src/test/resources/TestData.xlsx
+++ b/GroceryApplication/src/test/resources/TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunt\eclipse-workspace\GroceryApplication\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunt\git\GroceryApplication\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C71ACD5-06AB-43A9-8C72-371856C6B6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D9350E-FC01-4647-B256-27312BCE6841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -36,7 +37,34 @@
     <t>admin</t>
   </si>
   <si>
-    <t>admin1</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Arunthathi</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Neethu</t>
+  </si>
+  <si>
+    <t>Neethu123</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>uadmin1</t>
+  </si>
+  <si>
+    <t>padmin1</t>
   </si>
 </sst>
 </file>
@@ -369,7 +397,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +426,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -409,15 +437,63 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111C4855-4D20-4E79-B73D-B4F2F6F19EF1}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
